--- a/Data/FoodExpenditures/MonthlySales_TaxesTips.xlsx
+++ b/Data/FoodExpenditures/MonthlySales_TaxesTips.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dinesh/Dinesh/Agriculture Production/AgricultureProduction/Data/FoodExpenditures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BBA8827-8F34-5F4D-BB78-97F542BB510C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F8CFFF-5957-9242-9478-F4AAC9BC2F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="9160" windowWidth="23260" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3260" yWindow="3440" windowWidth="23260" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Food Expenditure Series" sheetId="1" r:id="rId1"/>
@@ -762,11 +762,12 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="18.5" customWidth="1"/>
   </cols>
